--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_7_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>224616.8668438401</v>
+        <v>221737.3537702059</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8626242.131105002</v>
+        <v>8626242.131105006</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279.0735637605888</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>21.09422402221596</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>112.7880424547597</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>50.29170092838143</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>67.65349471023481</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>38.62957611899969</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>246.9620305348703</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>40.14554895581863</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.5067073589267</v>
+        <v>124.1699884042476</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>248.7970004589868</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
-        <v>15.14483238681376</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>142.5641369480944</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>8.777525990011497</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.6282128623853</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>172.8191269749227</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>139.8654338699384</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1859,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>26.62538576503893</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>147.8368914671398</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2254,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>84.66722040511682</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,16 +2296,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>116.2126292984858</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2485,16 +2485,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>27.63355479238456</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>116.1216390582712</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060082001</v>
+        <v>84.6125906008199</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561462</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.1807515910839</v>
+        <v>67.1807515910838</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584591</v>
+        <v>47.88408137095391</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>16.93201195217907</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2807,7 +2807,7 @@
         <v>409.8432760127577</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060082001</v>
+        <v>84.6125906008199</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561462</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952163</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2959,10 +2959,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>81.37259901118684</v>
       </c>
       <c r="G31" t="n">
-        <v>81.37259901118502</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.1807515910839</v>
+        <v>67.1807515910838</v>
       </c>
       <c r="S31" t="n">
         <v>181.3384883584591</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>58.7764600311504</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>64.44601915223045</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,16 +3478,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>44.30292280757659</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>113.6427030833208</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1210.087414675782</v>
+        <v>1244.213538868513</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1244.213538868513</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>885.9478402617626</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>500.1595876635184</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>493.2140869143149</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>75.25027881250179</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2352.015598252017</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2352.015598252017</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>2020.952710908447</v>
       </c>
       <c r="W2" t="n">
-        <v>1865.445661583922</v>
+        <v>2020.952710908447</v>
       </c>
       <c r="X2" t="n">
-        <v>1491.979903322842</v>
+        <v>2020.952710908447</v>
       </c>
       <c r="Y2" t="n">
-        <v>1491.979903322842</v>
+        <v>1630.813378932635</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>280.0282177315058</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C4" t="n">
-        <v>280.0282177315058</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6192801108056</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X4" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y4" t="n">
-        <v>280.0282177315058</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1803.3088759247</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C5" t="n">
-        <v>1434.346358984288</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D5" t="n">
-        <v>1434.346358984288</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1048.558106386044</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332392</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988821</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988821</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2189.908715988821</v>
+        <v>1600.226746651594</v>
       </c>
       <c r="Y5" t="n">
-        <v>2189.908715988821</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>404.2378263186104</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="C7" t="n">
-        <v>404.2378263186104</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="D7" t="n">
-        <v>404.2378263186104</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="E7" t="n">
-        <v>404.2378263186104</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F7" t="n">
-        <v>257.3478788207</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>618.5262495004476</v>
+        <v>602.704753495073</v>
       </c>
       <c r="S7" t="n">
-        <v>404.2378263186104</v>
+        <v>602.704753495073</v>
       </c>
       <c r="T7" t="n">
-        <v>404.2378263186104</v>
+        <v>602.704753495073</v>
       </c>
       <c r="U7" t="n">
-        <v>404.2378263186104</v>
+        <v>602.704753495073</v>
       </c>
       <c r="V7" t="n">
-        <v>404.2378263186104</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="W7" t="n">
-        <v>404.2378263186104</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="X7" t="n">
-        <v>404.2378263186104</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.2378263186104</v>
+        <v>348.0202652891861</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8148076117928</v>
+        <v>1053.350203651863</v>
       </c>
       <c r="C8" t="n">
-        <v>478.8522906713811</v>
+        <v>684.3876867114516</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>326.1219881047011</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>326.1219881047011</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>319.1764873554976</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>305.2530832940885</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2681.851280526491</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2681.851280526491</v>
+        <v>2423.485734520777</v>
       </c>
       <c r="U8" t="n">
-        <v>2681.851280526491</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V8" t="n">
-        <v>2350.788393182921</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W8" t="n">
-        <v>1998.019737912806</v>
+        <v>1816.955293888755</v>
       </c>
       <c r="X8" t="n">
-        <v>1624.553979651726</v>
+        <v>1443.489535627675</v>
       </c>
       <c r="Y8" t="n">
-        <v>1234.414647675915</v>
+        <v>1053.350203651863</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298166</v>
+        <v>210.722263271456</v>
       </c>
       <c r="C10" t="n">
-        <v>373.0594214943678</v>
+        <v>210.722263271456</v>
       </c>
       <c r="D10" t="n">
-        <v>222.942782082032</v>
+        <v>210.722263271456</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>62.80916968906291</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>438.7118141694734</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>210.722263271456</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600564</v>
+        <v>210.722263271456</v>
       </c>
     </row>
     <row r="11">
@@ -5036,46 +5036,46 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
@@ -5112,10 +5112,10 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5124,16 +5124,16 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C13" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1709.312793849721</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1709.312793849721</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1420.209926975365</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1165.525438769478</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W13" t="n">
-        <v>876.1082687325173</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X13" t="n">
-        <v>648.1187178345</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y13" t="n">
-        <v>427.3261386909699</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,19 +5279,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N14" t="n">
-        <v>2883.993034926781</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O14" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
         <v>4470.748294107237</v>
@@ -5303,25 +5303,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
@@ -5361,7 +5361,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,22 +5373,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>489.220537824527</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="C16" t="n">
-        <v>489.220537824527</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D16" t="n">
-        <v>339.1038984121913</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E16" t="n">
-        <v>339.1038984121913</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1691.948234140088</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1470.181618709614</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.078751835257</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V16" t="n">
-        <v>1181.078751835257</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W16" t="n">
-        <v>891.6615817982969</v>
+        <v>1338.614146438102</v>
       </c>
       <c r="X16" t="n">
-        <v>891.6615817982969</v>
+        <v>1110.624595540085</v>
       </c>
       <c r="Y16" t="n">
-        <v>670.8690026547667</v>
+        <v>889.8320163965544</v>
       </c>
     </row>
     <row r="17">
@@ -5492,19 +5492,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>932.5990189467745</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1797.117834600129</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2330.649739272054</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
         <v>205.0702204089889</v>
@@ -5589,16 +5589,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5610,22 +5610,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>410.7144041584436</v>
+        <v>810.9179079604254</v>
       </c>
       <c r="C19" t="n">
-        <v>241.7782212305366</v>
+        <v>784.0235789048305</v>
       </c>
       <c r="D19" t="n">
-        <v>241.7782212305366</v>
+        <v>633.9069394924948</v>
       </c>
       <c r="E19" t="n">
-        <v>241.7782212305366</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U19" t="n">
-        <v>1585.246657273078</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V19" t="n">
-        <v>1330.562169067191</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W19" t="n">
-        <v>1041.144999030231</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X19" t="n">
-        <v>813.1554481322135</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y19" t="n">
-        <v>592.3628689886833</v>
+        <v>992.5663727906651</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>888.4135721382786</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M20" t="n">
-        <v>2337.214217867999</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N20" t="n">
-        <v>2883.993034926781</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O20" t="n">
-        <v>3763.957685256236</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6097761177758</v>
+        <v>814.7290857654818</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6097761177758</v>
+        <v>645.792902837575</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>495.6762634252392</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>495.6762634252392</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>348.7863159273288</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>181.0834793020478</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U22" t="n">
-        <v>1644.746393431758</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V22" t="n">
-        <v>1390.061905225871</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W22" t="n">
-        <v>1100.64473518891</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X22" t="n">
-        <v>983.2582409480156</v>
+        <v>1217.170129739252</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.2582409480156</v>
+        <v>996.3775505957216</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.9597618327374</v>
+        <v>562.5269503710301</v>
       </c>
       <c r="C25" t="n">
-        <v>784.0235789048305</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D25" t="n">
-        <v>633.9069394924948</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6163,34 +6163,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.3434661047</v>
+        <v>1928.430784496235</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.3434661047</v>
+        <v>1736.744900323061</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674226</v>
+        <v>1736.744900323061</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.576850674226</v>
+        <v>1447.642033448704</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468339</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="W25" t="n">
-        <v>1362.597777560994</v>
+        <v>1192.957545242817</v>
       </c>
       <c r="X25" t="n">
-        <v>1134.608226662977</v>
+        <v>964.9679943448</v>
       </c>
       <c r="Y25" t="n">
-        <v>1134.608226662977</v>
+        <v>744.1754152012699</v>
       </c>
     </row>
     <row r="26">
@@ -6212,46 +6212,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160752</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507186</v>
+        <v>373.344223650719</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074383993</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944172</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234026</v>
+        <v>2183.498949883207</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.783927800312</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259448</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946794</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.5340990528</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
@@ -6297,28 +6297,28 @@
         <v>178.7211392683895</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034524</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160706</v>
+        <v>572.0050724668101</v>
       </c>
       <c r="L27" t="n">
-        <v>584.5806809953565</v>
+        <v>1062.73740531056</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.599035247482</v>
+        <v>1654.755759562686</v>
       </c>
       <c r="N27" t="n">
-        <v>1798.694998646816</v>
+        <v>2134.228836269692</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.571473647008</v>
+        <v>2134.228836269692</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695767</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9822234696675</v>
+        <v>849.5769285337228</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9822234696675</v>
+        <v>680.6407456058159</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8655840573317</v>
+        <v>530.5241061934802</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9524904749386</v>
+        <v>382.6110126110871</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160706</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411606</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117235</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948563</v>
+        <v>820.221016094857</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139311</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931017</v>
+        <v>1654.146473931021</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946045</v>
+        <v>2021.16893094605</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782249</v>
+        <v>2311.699365782254</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335683</v>
+        <v>2429.412499335689</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294184</v>
+        <v>2361.55315429419</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033115</v>
+        <v>2313.18539533363</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747496</v>
+        <v>2313.18539533363</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062223</v>
+        <v>2024.109181648357</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856336</v>
+        <v>1769.42469344247</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819376</v>
+        <v>1480.00752340551</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.423267443437</v>
+        <v>1252.017972507492</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.6306882999072</v>
+        <v>1031.225393363962</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127631</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160771</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160656</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507185</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074383988</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944172</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883207</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.58344915113</v>
+        <v>2971.583449151127</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610263</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297609</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S29" t="n">
         <v>4606.950144347201</v>
@@ -6494,19 +6494,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.7211392683895</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034524</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160706</v>
+        <v>572.0050724668101</v>
       </c>
       <c r="L30" t="n">
-        <v>584.5806809953565</v>
+        <v>1062.73740531056</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.599035247482</v>
+        <v>1587.352361269499</v>
       </c>
       <c r="N30" t="n">
-        <v>1798.694998646816</v>
+        <v>1587.352361269499</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.571473647008</v>
+        <v>2134.228836269692</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695767</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149475921</v>
+        <v>495.0957149475939</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196852</v>
+        <v>326.159532019687</v>
       </c>
       <c r="D31" t="n">
-        <v>176.0428926073495</v>
+        <v>176.0428926073513</v>
       </c>
       <c r="E31" t="n">
-        <v>176.0428926073495</v>
+        <v>176.0428926073513</v>
       </c>
       <c r="F31" t="n">
-        <v>176.0428926073495</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411606</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117235</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948563</v>
+        <v>820.221016094857</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931021</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.16893094605</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782254</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335689</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.55315429419</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.38296403312</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.7041817475</v>
+        <v>1958.704181747502</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062227</v>
+        <v>1669.627968062229</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.94347985634</v>
+        <v>1414.943479856342</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819379</v>
+        <v>1125.526309819381</v>
       </c>
       <c r="X31" t="n">
-        <v>897.536758921362</v>
+        <v>897.5367589213638</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778318</v>
+        <v>676.7441797778337</v>
       </c>
     </row>
     <row r="32">
@@ -6713,13 +6713,13 @@
         <v>2920.783927800308</v>
       </c>
       <c r="O32" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P32" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q32" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580353</v>
@@ -6780,22 +6780,22 @@
         <v>241.4963299034522</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668096</v>
+        <v>373.2380436180413</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310559</v>
+        <v>373.2380436180413</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.755759562684</v>
+        <v>965.2563978701667</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.851722962018</v>
+        <v>1587.352361269501</v>
       </c>
       <c r="O33" t="n">
-        <v>2323.251080710521</v>
+        <v>2134.228836269693</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695767</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.1719286328653</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C34" t="n">
-        <v>615.2357457049584</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8655840573317</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9524904749386</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160706</v>
+        <v>158.9453371942641</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160706</v>
@@ -6889,19 +6889,19 @@
         <v>1958.7041817475</v>
       </c>
       <c r="U34" t="n">
-        <v>1958.7041817475</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V34" t="n">
-        <v>1704.019693541613</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W34" t="n">
-        <v>1414.602523504652</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.612972606635</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y34" t="n">
-        <v>965.820393463105</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L36" t="n">
-        <v>119.2902967703784</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E37" t="n">
         <v>484.8112968429802</v>
@@ -7087,10 +7087,10 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7117,28 +7117,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1643.635426776346</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7263,10 +7263,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7391,40 +7391,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,10 +7664,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,19 +7725,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516231</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>133.2530576400255</v>
+        <v>219.3344627260173</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>374.169394802195</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>317.5146261106144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,16 +9176,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9398,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>103.7862464855144</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>315.167921710932</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>295.4822118493972</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782911217</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782910543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>51.31264782911239</v>
+        <v>51.31264782910694</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.31264782911228</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>103.6602779028918</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>103.660277902898</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-8.463983321589277e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>34.14081246905661</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761676</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465729</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143191</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>16.94989835651916</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>146.6575644666526</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>140.6214353335889</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590269</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004994</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>138.3749467384731</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>60.08779450920396</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24184,16 +24184,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>109.4970260905513</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>61.29859787766277</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>170.4013592783198</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440919</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.4544069875052</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.7776434368581</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>64.04844901174441</v>
       </c>
       <c r="G31" t="n">
-        <v>84.16945386598191</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440919</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>89.83901298706195</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.453989791954</v>
+        <v>76.00797063972352</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440925</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,16 +25366,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>207.8347205162514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>34.97276993489153</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1073738.852344344</v>
+        <v>1073738.852344345</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1073738.852344345</v>
+        <v>1073738.852344344</v>
       </c>
     </row>
     <row r="16">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345435.9249908656</v>
+        <v>345435.9249908654</v>
       </c>
       <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923207</v>
       </c>
       <c r="E2" t="n">
-        <v>337519.5188539355</v>
+        <v>337519.5188539357</v>
       </c>
       <c r="F2" t="n">
         <v>337519.5188539358</v>
       </c>
       <c r="G2" t="n">
-        <v>337519.5188539358</v>
+        <v>337519.5188539357</v>
       </c>
       <c r="H2" t="n">
-        <v>337519.5188539355</v>
+        <v>337519.5188539359</v>
       </c>
       <c r="I2" t="n">
-        <v>337519.5188539355</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="J2" t="n">
+        <v>342840.2652753876</v>
+      </c>
+      <c r="K2" t="n">
+        <v>342840.2652753877</v>
+      </c>
+      <c r="L2" t="n">
         <v>342840.2652753874</v>
       </c>
-      <c r="K2" t="n">
-        <v>342840.2652753876</v>
-      </c>
-      <c r="L2" t="n">
-        <v>342840.2652753876</v>
-      </c>
       <c r="M2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682528</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.413993407</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>369281.3433869589</v>
+        <v>369281.3433869597</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>136530.2358202887</v>
+        <v>136530.2358202888</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196354.9023835025</v>
+        <v>196354.9023835023</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
+        <v>25090.72367499383</v>
+      </c>
+      <c r="F4" t="n">
         <v>25090.72367499382</v>
       </c>
-      <c r="F4" t="n">
-        <v>25090.72367499377</v>
-      </c>
       <c r="G4" t="n">
-        <v>25090.72367499377</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499375</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.97189485536</v>
+        <v>5781.971894855316</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855415</v>
+        <v>5781.971894855338</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855413</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.59260167039</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.59260167044</v>
+        <v>5067.592601670445</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
     </row>
     <row r="5">
@@ -26473,22 +26473,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340944</v>
       </c>
       <c r="E5" t="n">
+        <v>96383.51825371367</v>
+      </c>
+      <c r="F5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="F5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-523745.9346705908</v>
+        <v>-523766.5630658934</v>
       </c>
       <c r="C6" t="n">
-        <v>65019.16820117948</v>
+        <v>65019.16820117951</v>
       </c>
       <c r="D6" t="n">
-        <v>65019.16820117953</v>
+        <v>65019.16820117987</v>
       </c>
       <c r="E6" t="n">
-        <v>-511332.1370681787</v>
+        <v>-511399.3325584047</v>
       </c>
       <c r="F6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350024</v>
       </c>
       <c r="G6" t="n">
-        <v>216045.2769252283</v>
+        <v>215978.0814350024</v>
       </c>
       <c r="H6" t="n">
-        <v>216045.276925228</v>
+        <v>215978.0814350026</v>
       </c>
       <c r="I6" t="n">
-        <v>216045.2769252282</v>
+        <v>215978.0814350023</v>
       </c>
       <c r="J6" t="n">
-        <v>-133153.0894636653</v>
+        <v>-133188.9864455303</v>
       </c>
       <c r="K6" t="n">
-        <v>236128.2539232936</v>
+        <v>236092.3569414295</v>
       </c>
       <c r="L6" t="n">
-        <v>236128.2539232936</v>
+        <v>236092.35694143</v>
       </c>
       <c r="M6" t="n">
-        <v>100316.9466223864</v>
+        <v>100282.2086969509</v>
       </c>
       <c r="N6" t="n">
-        <v>236847.1824426753</v>
+        <v>236812.4445172397</v>
       </c>
       <c r="O6" t="n">
-        <v>236847.1824426751</v>
+        <v>236812.4445172394</v>
       </c>
       <c r="P6" t="n">
-        <v>236847.1824426753</v>
+        <v>236812.4445172395</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26741,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,10 +26759,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716383</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716383</v>
       </c>
       <c r="L3" t="n">
         <v>1358.041048716382</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26820,10 +26820,10 @@
         <v>1173.104351895088</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,19 +26981,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>268.2643481230832</v>
+        <v>268.2643481230843</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-7.619106214401518e-14</v>
       </c>
       <c r="M3" t="n">
         <v>9.934451625292468</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.829594054935</v>
+        <v>519.8295940549352</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503751</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>302.8285487421412</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>298.9492677890316</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27540,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>80.96197830797755</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>96.33604567333853</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>159.9140152068412</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>329.5855517226504</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>38.15848462123117</v>
+        <v>22.49520357591022</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>75.1257723053703</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>159.2708804221577</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>24.68268415053345</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>136.6435220329197</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.602510716717613e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-2.627467469649453e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837925</v>
@@ -32807,7 +32807,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377414</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122265</v>
+        <v>55.9117101112227</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704054</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874054</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830415</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364244</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293287</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229586</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086931</v>
       </c>
       <c r="P26" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687507</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148593</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987155</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854254</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665714</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190193</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540899</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088184</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735812</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848214</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745706</v>
+        <v>634.243604874571</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504285</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927615</v>
+        <v>615.6579511813193</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426184</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>344.3187317060057</v>
+        <v>557.7961431982441</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862148</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821089</v>
+        <v>11.7739596582109</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.192175620101375</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291837</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548562</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284909</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273329</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900879</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640607</v>
+        <v>364.088578864061</v>
       </c>
       <c r="M28" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265013</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416866</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465954</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282417</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561738</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860857</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851319</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.133577808070464</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377414</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122265</v>
+        <v>55.9117101112227</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704054</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874054</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830415</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364244</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293287</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229586</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086931</v>
       </c>
       <c r="P29" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687507</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148593</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987155</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854254</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665714</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190193</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540899</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088184</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735812</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848214</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745706</v>
+        <v>634.243604874571</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504278</v>
+        <v>672.0481308502399</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927615</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426189</v>
       </c>
       <c r="P30" t="n">
-        <v>344.3187317060057</v>
+        <v>557.7961431982441</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862148</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821089</v>
+        <v>11.7739596582109</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.192175620101375</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291837</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548562</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284909</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273329</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900879</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640607</v>
+        <v>364.088578864061</v>
       </c>
       <c r="M31" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265013</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416866</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465954</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282417</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561738</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860857</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851319</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551967</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.133577808070464</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33500,10 +33500,10 @@
         <v>275.977002173581</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684821</v>
+        <v>270.9138770699035</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745706</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>740.1323715504278</v>
@@ -33512,13 +33512,13 @@
         <v>759.7214730927615</v>
       </c>
       <c r="O33" t="n">
-        <v>189.464282574245</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>399.190220890813</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K5" t="n">
         <v>297.2230414343419</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,16 +35021,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279169</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>641.3060585282446</v>
+        <v>727.3874636142364</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>882.2223956904141</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>654.7059126660149</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
@@ -35896,16 +35896,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>440.9775330409149</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>713.9299079303039</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>751.0723262417293</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004592</v>
@@ -36455,7 +36455,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451067</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789366</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607192</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380603</v>
+        <v>474.374125038061</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664372</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311674</v>
+        <v>728.287436302056</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263678</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870064</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134812</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404098</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845831</v>
+        <v>178.6700086136888</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104624</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946968</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284101</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094282</v>
+        <v>484.316239097986</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981739</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>210.3443242916754</v>
+        <v>423.8217357839138</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066012</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642048</v>
+        <v>262.251239364205</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243772</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883378</v>
+        <v>423.4642343883419</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209151</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606351</v>
       </c>
       <c r="P28" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931352</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044794</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607192</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380603</v>
+        <v>474.374125038061</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664372</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302056</v>
       </c>
       <c r="N29" t="n">
-        <v>796.0449487554793</v>
+        <v>796.0449487554747</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870064</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134812</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404098</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845834</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069145</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104624</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946968</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284094</v>
+        <v>529.9140969282216</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094282</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981745</v>
       </c>
       <c r="P30" t="n">
-        <v>210.3443242916754</v>
+        <v>423.8217357839138</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066012</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642048</v>
+        <v>262.251239364205</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243772</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883419</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209151</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606351</v>
       </c>
       <c r="P31" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931352</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044794</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>744.7323009263669</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870057</v>
+        <v>741.072280616118</v>
       </c>
       <c r="P32" t="n">
         <v>553.8443926134805</v>
@@ -37090,7 +37090,7 @@
         <v>367.2547334404093</v>
       </c>
       <c r="R32" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37148,10 @@
         <v>149.1393755069143</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710462</v>
+        <v>133.0724380955445</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946964</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>597.9983376284094</v>
@@ -37160,13 +37160,13 @@
         <v>628.3797610094282</v>
       </c>
       <c r="O33" t="n">
-        <v>46.86803812980056</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>261.348781916454</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394598</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,19 +37625,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
